--- a/scripts/data/SIPdata/graph_options.xlsx
+++ b/scripts/data/SIPdata/graph_options.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kageyamatobio/virusresearch/pa-project/scripts/data/SIPdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76360F89-83E8-664B-9F8F-53CB0B4862B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEAF038-203C-2C41-AAE3-B50263493970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15800" xr2:uid="{19BD46D5-EC69-034B-A0C9-151370D06576}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Scatter</t>
   </si>
@@ -126,13 +126,19 @@
   </si>
   <si>
     <t>Discrete vs Discrete (shading by continuous)</t>
+  </si>
+  <si>
+    <t>Fields that can be viewed/graphed on the website</t>
+  </si>
+  <si>
+    <t>Graphs that can be made on the website</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -140,16 +146,57 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -157,12 +204,197 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,140 +709,204 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8C885A-5B88-7D47-952B-8628F16B5627}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="28" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="D4" s="31"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="D5" s="31"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="D6" s="31"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="D7" s="31"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="D8" s="31"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="D9" s="31"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="31" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="19" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="22" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="24"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="22" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="24"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="25" t="s">
         <v>29</v>
       </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
